--- a/final.xlsx
+++ b/final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,10 +1046,8 @@
           <t>Gioross</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1098899</t>
-        </is>
+      <c r="G11" t="n">
+        <v>1098899</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1077,13 +1075,551 @@
           <t>naiknarayanp557@gmail.com</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>+918123121880</t>
-        </is>
+      <c r="N11" t="n">
+        <v>918123121880</v>
       </c>
       <c r="O11" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Narayan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2005-05-05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BNumauu</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10928812</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AOp09</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Dr. Johnson</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2004-05-09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BluOIIs</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>908282</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MUB09</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2004-05-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>BluOlls</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>908889</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GCV90</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Naraynaik</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2005-09-08</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Abcdef</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>812312</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ABC04</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O15" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Naraynaik</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2005-09-08</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Abcdef</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>812312</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ABC04</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>BlCross</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>123456</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ABC109</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>naikanrayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2003-09-08</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Abcd</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>9898</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>90UJ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Dr. Lee</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>8123121880</v>
+      </c>
+      <c r="O18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2003-09-08</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Recurring</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Abcd</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>09898</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>90UJ</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Dr. Lee</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Downtown Office</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>naiknarayanp557@gmail.com</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>8123121880.0</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
